--- a/2020群活.xlsx
+++ b/2020群活.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\东方\STG\SJTU2020群活接力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A02EF8-6ADC-4A6C-94D7-B0F8B63E8116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04D14A2-21C9-48AA-9FB8-B61249FE8A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>永夜抄</t>
   </si>
@@ -59,75 +59,33 @@
     <t>EX</t>
   </si>
   <si>
-    <t>81100118(495705628)</t>
-  </si>
-  <si>
-    <t>Envy Star☆(2412773160)</t>
-  </si>
-  <si>
-    <t>forever-MG42(10021838)</t>
-  </si>
-  <si>
     <t>mg42</t>
   </si>
   <si>
-    <t>ii(1811643400)</t>
-  </si>
-  <si>
-    <t>厄神的飘带＊谔谔bot(284161638)</t>
-  </si>
-  <si>
     <t>eszd</t>
   </si>
   <si>
-    <t>比奈奈為 天無之(1300401733)</t>
-  </si>
-  <si>
     <t>tenshi/soviet</t>
   </si>
   <si>
-    <t>登月不死烟(1002082759)</t>
-  </si>
-  <si>
     <t>jjfly</t>
   </si>
   <si>
-    <t>风之梦路(364365308)</t>
-  </si>
-  <si>
     <t>Tiya</t>
   </si>
   <si>
-    <t>鸽子bot(867682978)</t>
-  </si>
-  <si>
     <t>relu</t>
   </si>
   <si>
-    <t>提醒接力投票bot(1197409866)</t>
-  </si>
-  <si>
-    <t>桥姬(2803471456)</t>
-  </si>
-  <si>
     <t>miko</t>
   </si>
   <si>
-    <t>幽雅に咲かせ、墨染の桜(1491556778)</t>
-  </si>
-  <si>
     <t>huaq</t>
   </si>
   <si>
-    <t>平文門（562935530）</t>
-  </si>
-  <si>
     <t>hum</t>
   </si>
   <si>
-    <t>skycurioser(759479949)</t>
-  </si>
-  <si>
     <t>Serg1o</t>
   </si>
   <si>
@@ -135,10 +93,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>霰@完美而潇洒(1464309103)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>天眼通(478016769)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -147,10 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>涼風クリス(839754614)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>残机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -199,162 +149,202 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>小爱厨0号</t>
+  </si>
+  <si>
+    <t>Aisaka</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>残雪</t>
+  </si>
+  <si>
+    <t>YUKI</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>天zZ</t>
+  </si>
+  <si>
+    <t>TzZ</t>
+  </si>
+  <si>
+    <t>nikami</t>
+  </si>
+  <si>
+    <t>hyper数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>release数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>残机数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>残机碎片数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb碎片数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大得点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb碎片、鹰、残机碎片、水獭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红魔组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gupoyama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szkz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、蓝点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、蓝点、鹰、水獭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、獭、鹰、残机碎片、蓝点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、残机碎片、狼、水獭、鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涼風クリス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥姬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envy Star☆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forever-MG42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽雅に咲かせ、墨染の桜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒接力投票bot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽子bot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ii</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登月不死烟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skycurioser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之梦路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄神的飘带＊谔谔bot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比奈奈為 天無之</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平文門</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰@完美而潇洒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>鬼形兽</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>小爱厨0号(943789196)</t>
-  </si>
-  <si>
-    <t>小爱厨0号</t>
-  </si>
-  <si>
-    <t>Aisaka</t>
-  </si>
-  <si>
-    <t>Malesta.Rekonto(2564876293)</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>残雪(513639514)</t>
-  </si>
-  <si>
-    <t>残雪</t>
-  </si>
-  <si>
-    <t>YUKI</t>
-  </si>
-  <si>
-    <t>催加题bot还想要fumo(ᗜˬᗜ)(940012978)</t>
-  </si>
-  <si>
-    <t>Scarlet</t>
-  </si>
-  <si>
-    <t>天zZ(981286656)</t>
-  </si>
-  <si>
-    <t>天zZ</t>
-  </si>
-  <si>
-    <t>TzZ</t>
-  </si>
-  <si>
-    <t>【拉链p】缴械(441662937)</t>
-  </si>
-  <si>
-    <t>nikami</t>
-  </si>
-  <si>
-    <t>hyper数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>release数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>残机数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>残机碎片数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bomb碎片数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大得点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bomb碎片、鹰、残机碎片、水獭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红魔组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结界组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gupoyama</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>szkz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、蓝点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、蓝点、鹰、水獭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结界组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、獭、鹰、残机碎片、蓝点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、残机碎片、狼、水獭、鹰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -876,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -900,51 +890,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -974,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M2" s="12">
         <v>0</v>
@@ -983,15 +973,15 @@
         <v>0</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="15.6">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
+      <c r="A3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -1021,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M3" s="12">
         <v>0</v>
@@ -1030,15 +1020,15 @@
         <v>0</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -1068,7 +1058,7 @@
         <v>-0.221</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="M4" s="12">
         <v>0</v>
@@ -1077,12 +1067,12 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="9" t="s">
@@ -1103,10 +1093,10 @@
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>3</v>
@@ -1125,8 +1115,8 @@
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="15.6">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>81100118</v>
       </c>
       <c r="B7" s="1">
         <v>811</v>
@@ -1149,10 +1139,10 @@
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
@@ -1172,7 +1162,7 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -1192,10 +1182,10 @@
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>6</v>
@@ -1215,10 +1205,10 @@
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -1248,7 +1238,7 @@
         <v>-1</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M11" s="14">
         <v>0</v>
@@ -1257,15 +1247,15 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -1295,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M12" s="14">
         <v>0</v>
@@ -1304,15 +1294,15 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -1342,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M13" s="14">
         <v>0</v>
@@ -1351,15 +1341,15 @@
         <v>0</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>2</v>
@@ -1389,7 +1379,7 @@
         <v>-1</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M14" s="14">
         <v>0</v>
@@ -1398,15 +1388,15 @@
         <v>0</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>3</v>
@@ -1426,10 +1416,10 @@
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10">
         <v>5</v>
@@ -1449,10 +1439,10 @@
     </row>
     <row r="17" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>4</v>
@@ -1472,10 +1462,10 @@
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>5</v>
@@ -1495,10 +1485,10 @@
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>6</v>
@@ -1518,359 +1508,341 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{153185E0-4AA2-4B84-9806-127DB6F11D4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65912A8B-B81E-4E19-BF97-47C1D458F5A0}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="5" max="8" width="9.21875" style="15" customWidth="1"/>
-    <col min="9" max="16" width="11.33203125" style="26" customWidth="1"/>
-    <col min="17" max="17" width="41.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="4" max="7" width="9.21875" style="15" customWidth="1"/>
+    <col min="8" max="15" width="11.33203125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="41.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" ht="15.6">
+    <row r="1" spans="1:16" s="17" customFormat="1" ht="15.6">
       <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:16" s="20" customFormat="1" ht="15">
+      <c r="A2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0</v>
+      </c>
+      <c r="H2" s="27">
+        <v>2</v>
+      </c>
+      <c r="I2" s="27">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27">
+        <v>3</v>
+      </c>
+      <c r="K2" s="27">
+        <v>1</v>
+      </c>
+      <c r="L2" s="27">
+        <v>3.71</v>
+      </c>
+      <c r="M2" s="27">
+        <v>20140</v>
+      </c>
+      <c r="N2" s="27">
+        <v>261</v>
+      </c>
+      <c r="O2" s="27">
+        <v>8214800</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="15">
-      <c r="A2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27">
+    </row>
+    <row r="3" spans="1:16" s="20" customFormat="1" ht="15">
+      <c r="A3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="27">
-        <v>1</v>
-      </c>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="27">
-        <v>1</v>
-      </c>
-      <c r="M2" s="27">
-        <v>3.71</v>
-      </c>
-      <c r="N2" s="27">
-        <v>20140</v>
-      </c>
-      <c r="O2" s="27">
-        <v>261</v>
-      </c>
-      <c r="P2" s="27">
-        <v>8214800</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="20" customFormat="1" ht="15">
-      <c r="A3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
         <v>2</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
       </c>
       <c r="I3" s="27">
         <v>2</v>
       </c>
       <c r="J3" s="27">
+        <v>4</v>
+      </c>
+      <c r="K3" s="27">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>4</v>
+      </c>
+      <c r="M3" s="27">
+        <v>33130</v>
+      </c>
+      <c r="N3" s="27">
+        <v>1236</v>
+      </c>
+      <c r="O3" s="27">
+        <v>31377390</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="20" customFormat="1" ht="15">
+      <c r="A4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>3</v>
+      </c>
+      <c r="I4" s="27">
+        <v>1</v>
+      </c>
+      <c r="J4" s="27">
+        <v>5</v>
+      </c>
+      <c r="K4" s="27">
         <v>2</v>
       </c>
-      <c r="K3" s="27">
+      <c r="L4" s="27">
         <v>4</v>
       </c>
-      <c r="L3" s="27">
-        <v>1</v>
-      </c>
-      <c r="M3" s="27">
+      <c r="M4" s="27">
+        <v>62040</v>
+      </c>
+      <c r="N4" s="27">
+        <v>3163</v>
+      </c>
+      <c r="O4" s="27">
+        <v>90322210</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="20" customFormat="1" ht="15">
+      <c r="A5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="N3" s="27">
-        <v>33130</v>
-      </c>
-      <c r="O3" s="27">
-        <v>1236</v>
-      </c>
-      <c r="P3" s="27">
-        <v>31377390</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="20" customFormat="1" ht="15">
-      <c r="A4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>3</v>
-      </c>
-      <c r="J4" s="27">
-        <v>1</v>
-      </c>
-      <c r="K4" s="27">
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>4</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>7</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0</v>
+      </c>
+      <c r="L5" s="27">
+        <v>4</v>
+      </c>
+      <c r="M5" s="27">
+        <v>93340</v>
+      </c>
+      <c r="N5" s="27">
+        <v>6338</v>
+      </c>
+      <c r="O5" s="27">
+        <v>194644110</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="20" customFormat="1" ht="15">
+      <c r="A6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="L4" s="27">
-        <v>2</v>
-      </c>
-      <c r="M4" s="27">
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>5</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>8</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="27">
         <v>4</v>
       </c>
-      <c r="N4" s="27">
-        <v>62040</v>
-      </c>
-      <c r="O4" s="27">
-        <v>3163</v>
-      </c>
-      <c r="P4" s="27">
-        <v>90322210</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="20" customFormat="1" ht="15">
-      <c r="A5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="18">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27">
-        <v>4</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27">
-        <v>7</v>
-      </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-      <c r="M5" s="27">
-        <v>4</v>
-      </c>
-      <c r="N5" s="27">
-        <v>93340</v>
-      </c>
-      <c r="O5" s="27">
-        <v>6338</v>
-      </c>
-      <c r="P5" s="27">
-        <v>194644110</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="20" customFormat="1" ht="15">
-      <c r="A6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="18">
-        <v>5</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>5</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27">
-        <v>8</v>
-      </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
       <c r="M6" s="27">
-        <v>4</v>
+        <v>124220</v>
       </c>
       <c r="N6" s="27">
-        <v>124220</v>
+        <v>11651</v>
       </c>
       <c r="O6" s="27">
-        <v>11651</v>
-      </c>
-      <c r="P6" s="27">
         <v>345275660</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="20" customFormat="1" ht="15">
-      <c r="A7" s="18" t="s">
-        <v>55</v>
+      <c r="P6" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="20" customFormat="1" ht="15">
+      <c r="A7" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="18">
+        <v>36</v>
+      </c>
+      <c r="C7" s="18">
         <v>6</v>
       </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
@@ -1882,8 +1854,7 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2020群活.xlsx
+++ b/2020群活.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04D14A2-21C9-48AA-9FB8-B61249FE8A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF7134-9DFD-45A3-B31B-B7E05826F5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65912A8B-B81E-4E19-BF97-47C1D458F5A0}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/2020群活.xlsx
+++ b/2020群活.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\东方\STG\SJTU2020群活接力\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF7134-9DFD-45A3-B31B-B7E05826F5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530C560-D0C4-4922-9823-BB5A7ED44C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>永夜抄</t>
   </si>
@@ -86,265 +86,273 @@
     <t>hum</t>
   </si>
   <si>
+    <t>神秘人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>残机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妖槽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼形兽</t>
+  </si>
+  <si>
+    <t>小爱厨0号</t>
+  </si>
+  <si>
+    <t>Aisaka</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>残雪</t>
+  </si>
+  <si>
+    <t>YUKI</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>天zZ</t>
+  </si>
+  <si>
+    <t>TzZ</t>
+  </si>
+  <si>
+    <t>nikami</t>
+  </si>
+  <si>
+    <t>hyper数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>release数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>残机数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>残机碎片数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb碎片数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大得点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb碎片、鹰、残机碎片、水獭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红魔组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gupoyama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szkz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、蓝点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、蓝点、鹰、水獭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、獭、鹰、残机碎片、蓝点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼、残机碎片、狼、水獭、鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涼風クリス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥姬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envy Star☆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forever-MG42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽雅に咲かせ、墨染の桜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒接力投票bot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽子bot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ii</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登月不死烟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skycurioser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之梦路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄神的飘带＊谔谔bot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比奈奈為 天無之</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平文門</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰@完美而潇洒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Serg1o</t>
-  </si>
-  <si>
-    <t>神秘人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天眼通(478016769)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>残机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>擦弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妖槽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>miss数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bomb数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小爱厨0号</t>
-  </si>
-  <si>
-    <t>Aisaka</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>残雪</t>
-  </si>
-  <si>
-    <t>YUKI</t>
-  </si>
-  <si>
-    <t>Scarlet</t>
-  </si>
-  <si>
-    <t>天zZ</t>
-  </si>
-  <si>
-    <t>TzZ</t>
-  </si>
-  <si>
-    <t>nikami</t>
-  </si>
-  <si>
-    <t>hyper数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>release数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>残机数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>残机碎片数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bomb碎片数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大得点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bomb碎片、鹰、残机碎片、水獭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红魔组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结界组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gupoyama</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>szkz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、蓝点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、蓝点、鹰、水獭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结界组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、獭、鹰、残机碎片、蓝点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未收取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼、残机碎片、狼、水獭、鹰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏唱组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涼風クリス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥姬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Envy Star☆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>forever-MG42</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽雅に咲かせ、墨染の桜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒接力投票bot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸽子bot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ii</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登月不死烟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skycurioser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风之梦路</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>厄神的飘带＊谔谔bot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比奈奈為 天無之</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>平文門</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>霰@完美而潇洒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼形兽</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +875,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -890,51 +898,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -964,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="12">
         <v>0</v>
@@ -973,15 +981,15 @@
         <v>0</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="15.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -1011,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" s="12">
         <v>0</v>
@@ -1020,12 +1028,12 @@
         <v>0</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1058,42 +1066,66 @@
         <v>-0.221</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="D5" s="12">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="29">
+        <v>527292910</v>
+      </c>
+      <c r="G5" s="12">
+        <v>128</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1984</v>
+      </c>
+      <c r="I5" s="12">
+        <v>465</v>
+      </c>
+      <c r="J5" s="12">
+        <v>297780</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>4</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1139,7 +1171,7 @@
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1162,7 +1194,7 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -1182,10 +1214,10 @@
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>6</v>
@@ -1208,7 +1240,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -1238,7 +1270,7 @@
         <v>-1</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" s="14">
         <v>0</v>
@@ -1247,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="15.6">
@@ -1285,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="14">
         <v>0</v>
@@ -1294,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="15.6">
@@ -1302,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -1332,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="14">
         <v>0</v>
@@ -1341,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" ht="15.6">
@@ -1379,7 +1411,7 @@
         <v>-1</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14" s="14">
         <v>0</v>
@@ -1388,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="15.6">
@@ -1396,23 +1428,47 @@
         <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="D15" s="14">
+        <v>7</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1043337160</v>
+      </c>
+      <c r="G15" s="14">
+        <v>128</v>
+      </c>
+      <c r="H15" s="14">
+        <v>2940</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1019</v>
+      </c>
+      <c r="J15" s="14">
+        <v>358560</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.65169999999999995</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>2</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A16" s="5" t="s">
@@ -1509,7 +1565,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{153185E0-4AA2-4B84-9806-127DB6F11D4B}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{097A44F8-94E8-43A6-88B9-E7FDD61C3B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1521,7 +1577,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1534,60 +1590,60 @@
   <sheetData>
     <row r="1" spans="1:16" s="17" customFormat="1" ht="15.6">
       <c r="A1" s="22" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -1629,15 +1685,15 @@
         <v>8214800</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A3" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -1679,15 +1735,15 @@
         <v>31377390</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1729,15 +1785,15 @@
         <v>90322210</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1779,15 +1835,15 @@
         <v>194644110</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
@@ -1829,15 +1885,15 @@
         <v>345275660</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="C7" s="18">
         <v>6</v>

--- a/2020群活.xlsx
+++ b/2020群活.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\东方\STG\SJTU2020群活接力\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530C560-D0C4-4922-9823-BB5A7ED44C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E40AF5-EFB2-4129-830B-D47F7D991D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$22</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>永夜抄</t>
   </si>
@@ -86,10 +87,6 @@
     <t>hum</t>
   </si>
   <si>
-    <t>神秘人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TYT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -353,6 +350,14 @@
   </si>
   <si>
     <t>未收取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂魄妖梦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PixelD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -607,6 +612,970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.931972789115644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.506640751538708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.149181668132105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.856363493459146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.625108089008709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.452483894294009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.335698946946678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.272094235187307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.259137366845057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.294416539852435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.375634799859462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.500604571294723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C70-451E-AA74-88C7AE1ACD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$1:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>62.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.012345679012341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.011431184270677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.306880726176551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.876741413126439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.70068649363558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.759894901514436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.036939723624471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.515684929281917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.181189749335108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.01962013827325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.018166794697446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.16496925434949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C70-451E-AA74-88C7AE1ACD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="300937504"/>
+        <c:axId val="300933896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="300937504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300933896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="300933896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300937504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9418D5D1-53DC-44D5-8CE6-C575A81D1C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,7 +1844,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -898,51 +1867,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="M1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -972,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="12">
         <v>0</v>
@@ -981,15 +1950,15 @@
         <v>0</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -1019,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="12">
         <v>0</v>
@@ -1028,12 +1997,12 @@
         <v>0</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1066,23 +2035,25 @@
         <v>-0.221</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +2082,7 @@
         <v>0.77829999999999999</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="12">
         <v>0</v>
@@ -1120,12 +2091,12 @@
         <v>4</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1133,18 +2104,42 @@
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="D6" s="12">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7</v>
+      </c>
+      <c r="F6" s="29">
+        <v>870180120</v>
+      </c>
+      <c r="G6" s="12">
+        <v>128</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2909</v>
+      </c>
+      <c r="I6" s="12">
+        <v>743</v>
+      </c>
+      <c r="J6" s="12">
+        <v>367920</v>
+      </c>
+      <c r="K6" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A7" s="2">
@@ -1156,22 +2151,46 @@
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="D7" s="12">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1327053970</v>
+      </c>
+      <c r="G7" s="12">
+        <v>128</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3909</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1001</v>
+      </c>
+      <c r="J7" s="12">
+        <v>446470</v>
+      </c>
+      <c r="K7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1179,22 +2198,49 @@
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="D8" s="12">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1794622010</v>
+      </c>
+      <c r="G8" s="12">
+        <v>128</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5232</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1274</v>
+      </c>
+      <c r="J8" s="12">
+        <v>514400</v>
+      </c>
+      <c r="K8" s="13">
+        <v>-0.4274</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>4</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -1214,10 +2260,10 @@
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>6</v>
@@ -1237,10 +2283,10 @@
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -1270,7 +2316,7 @@
         <v>-1</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="14">
         <v>0</v>
@@ -1279,12 +2325,12 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -1317,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="14">
         <v>0</v>
@@ -1326,15 +2372,15 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -1364,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="14">
         <v>0</v>
@@ -1373,12 +2419,12 @@
         <v>0</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -1411,7 +2457,7 @@
         <v>-1</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="14">
         <v>0</v>
@@ -1420,15 +2466,15 @@
         <v>0</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>3</v>
@@ -1458,7 +2504,7 @@
         <v>0.65169999999999995</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="14">
         <v>0</v>
@@ -1467,12 +2513,12 @@
         <v>2</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -1480,22 +2526,46 @@
       <c r="C16" s="10">
         <v>5</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="D16" s="14">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14">
+        <v>6</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1518214380</v>
+      </c>
+      <c r="G16" s="14">
+        <v>128</v>
+      </c>
+      <c r="H16" s="14">
+        <v>4016</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1279</v>
+      </c>
+      <c r="J16" s="14">
+        <v>431190</v>
+      </c>
+      <c r="K16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>2</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -1503,22 +2573,46 @@
       <c r="C17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="D17" s="14">
+        <v>8</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1994749610</v>
+      </c>
+      <c r="G17" s="14">
+        <v>128</v>
+      </c>
+      <c r="H17" s="14">
+        <v>5047</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1547</v>
+      </c>
+      <c r="J17" s="14">
+        <v>482540</v>
+      </c>
+      <c r="K17" s="16">
+        <v>-0.1988</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>4</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -1541,7 +2635,7 @@
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1577,7 +2671,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1590,60 +2684,60 @@
   <sheetData>
     <row r="1" spans="1:16" s="17" customFormat="1" ht="15.6">
       <c r="A1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A2" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -1685,15 +2779,15 @@
         <v>8214800</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A3" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -1735,15 +2829,15 @@
         <v>31377390</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1785,15 +2879,15 @@
         <v>90322210</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1835,15 +2929,15 @@
         <v>194644110</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
@@ -1885,15 +2979,15 @@
         <v>345275660</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="20" customFormat="1" ht="15">
       <c r="A7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="18">
         <v>6</v>
@@ -1917,4 +3011,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F22087A-F028-4A08-A08F-F3DAD4196038}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>110</v>
+      </c>
+      <c r="C1">
+        <v>90</v>
+      </c>
+      <c r="D1">
+        <f>B1*0.3</f>
+        <v>33</v>
+      </c>
+      <c r="E1">
+        <f>C1*0.7</f>
+        <v>62.999999999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>110*1.05^-A2</f>
+        <v>104.76190476190476</v>
+      </c>
+      <c r="C2">
+        <f>90*1.08^-A2</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D14" si="0">B2*0.3</f>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E14" si="1">C2*0.7</f>
+        <v>58.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B14" si="2">110*1.05^-A3</f>
+        <v>99.773242630385482</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C14" si="3">90*1.08^-A3</f>
+        <v>77.160493827160494</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>29.931972789115644</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>54.012345679012341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>95.022135838462361</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="3"/>
+        <v>71.444901691815261</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>28.506640751538708</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>50.011431184270677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>90.497272227107018</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>66.15268675168079</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>27.149181668132105</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>46.306880726176551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>86.187878311530483</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>61.252487733037775</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>25.856363493459146</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>42.876741413126439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>82.083693630029032</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>56.715266419479406</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>24.625108089008709</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>39.70068649363558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>78.17494631431336</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>52.51413557359205</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>23.452483894294009</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>36.759894901514436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>74.452329823155594</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>48.624199605177814</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>22.335698946946678</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>34.036939723624471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>70.906980783957692</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>45.022407041831315</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>21.272094235187307</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>31.515684929281917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>67.530457889483529</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>41.687413927621584</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>20.259137366845057</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>29.181189749335108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>64.314721799508121</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>38.599457340390359</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>19.294416539852435</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>27.01962013827325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>61.252115999531547</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>35.740238278139209</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>18.375634799859462</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>25.018166794697446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>58.335348570982411</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>33.092813220499274</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>17.500604571294723</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>23.16496925434949</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2020群活.xlsx
+++ b/2020群活.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\东方\STG\SJTU2020群活接力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E40AF5-EFB2-4129-830B-D47F7D991D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34242361-0484-40FD-A905-F5565AF8383E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
